--- a/Nhap lieu - nuoc mua-C_GITHUB.xlsx
+++ b/Nhap lieu - nuoc mua-C_GITHUB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cong_Viec\WACC\20171117_DETAINUOCMUA\FIELDTRIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cong_Viec\WACC\20171117_DETAINUOCMUA\FIELDTRIP\FIELDTRIP2_GIT\NUOCMUA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="180">
   <si>
     <t>STT</t>
   </si>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1089,22 +1089,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1145,52 +1129,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1287,6 +1227,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1626,11 +1626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DT94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,703 +1721,703 @@
     <col min="114" max="121" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="15">
+    <row r="1" spans="1:124" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="58">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="16" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="17" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="18" t="s">
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="64"/>
+      <c r="CL1" s="64"/>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="64"/>
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="64"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="64"/>
+      <c r="DC1" s="64"/>
+      <c r="DD1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="19"/>
-      <c r="DJ1" s="20"/>
-      <c r="DK1" s="20"/>
-      <c r="DL1" s="20"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="21"/>
-      <c r="DP1" s="21"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="22"/>
-      <c r="DS1" s="23"/>
-      <c r="DT1" s="23"/>
-    </row>
-    <row r="2" spans="1:124" s="51" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="50"/>
+      <c r="DG1" s="50"/>
+      <c r="DH1" s="50"/>
+      <c r="DI1" s="15"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
+      <c r="DO1" s="17"/>
+      <c r="DP1" s="17"/>
+      <c r="DQ1" s="17"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="19"/>
+      <c r="DT1" s="19"/>
+    </row>
+    <row r="2" spans="1:124" s="36" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="28" t="s">
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="29" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="29" t="s">
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="29" t="s">
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="28" t="s">
+      <c r="AZ2" s="62"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="28" t="s">
+      <c r="BD2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="28" t="s">
+      <c r="BE2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BF2" s="28" t="s">
+      <c r="BF2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="BG2" s="28" t="s">
+      <c r="BG2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BH2" s="34" t="s">
+      <c r="BH2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="34" t="s">
+      <c r="BI2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="34" t="s">
+      <c r="BJ2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BK2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BL2" s="34" t="s">
+      <c r="BL2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BM2" s="34" t="s">
+      <c r="BM2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BN2" s="35" t="s">
+      <c r="BN2" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="38" t="s">
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="53"/>
+      <c r="BR2" s="53"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="BW2" s="39"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="41" t="s">
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="BZ2" s="42" t="s">
+      <c r="BZ2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="CA2" s="35" t="s">
+      <c r="CA2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="43" t="s">
+      <c r="CB2" s="53"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="53"/>
+      <c r="CE2" s="53"/>
+      <c r="CF2" s="53"/>
+      <c r="CG2" s="53"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="CJ2" s="35" t="s">
+      <c r="CJ2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="44" t="s">
+      <c r="CK2" s="52"/>
+      <c r="CL2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="CM2" s="35" t="s">
+      <c r="CM2" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="CN2" s="37"/>
-      <c r="CO2" s="35" t="s">
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="CP2" s="37"/>
-      <c r="CQ2" s="44" t="s">
+      <c r="CP2" s="52"/>
+      <c r="CQ2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR2" s="35" t="s">
+      <c r="CR2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="CS2" s="36"/>
-      <c r="CT2" s="36"/>
-      <c r="CU2" s="36"/>
-      <c r="CV2" s="36"/>
-      <c r="CW2" s="36"/>
-      <c r="CX2" s="36"/>
-      <c r="CY2" s="36"/>
-      <c r="CZ2" s="36"/>
-      <c r="DA2" s="36"/>
-      <c r="DB2" s="36"/>
-      <c r="DC2" s="37"/>
-      <c r="DD2" s="45" t="s">
+      <c r="CS2" s="53"/>
+      <c r="CT2" s="53"/>
+      <c r="CU2" s="53"/>
+      <c r="CV2" s="53"/>
+      <c r="CW2" s="53"/>
+      <c r="CX2" s="53"/>
+      <c r="CY2" s="53"/>
+      <c r="CZ2" s="53"/>
+      <c r="DA2" s="53"/>
+      <c r="DB2" s="53"/>
+      <c r="DC2" s="52"/>
+      <c r="DD2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="DE2" s="45" t="s">
+      <c r="DE2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="DF2" s="45" t="s">
+      <c r="DF2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="DG2" s="45" t="s">
+      <c r="DG2" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="DH2" s="45" t="s">
+      <c r="DH2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="DI2" s="46"/>
-      <c r="DJ2" s="47"/>
-      <c r="DK2" s="47"/>
-      <c r="DL2" s="47"/>
-      <c r="DM2" s="47"/>
-      <c r="DN2" s="47"/>
-      <c r="DO2" s="47"/>
-      <c r="DP2" s="48"/>
-      <c r="DQ2" s="48"/>
-      <c r="DR2" s="49"/>
-      <c r="DS2" s="50"/>
-      <c r="DT2" s="50"/>
-    </row>
-    <row r="3" spans="1:124" s="64" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53" t="s">
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="32"/>
+      <c r="DK2" s="32"/>
+      <c r="DL2" s="32"/>
+      <c r="DM2" s="32"/>
+      <c r="DN2" s="32"/>
+      <c r="DO2" s="32"/>
+      <c r="DP2" s="33"/>
+      <c r="DQ2" s="33"/>
+      <c r="DR2" s="34"/>
+      <c r="DS2" s="35"/>
+      <c r="DT2" s="35"/>
+    </row>
+    <row r="3" spans="1:124" s="49" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53" t="s">
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="53" t="s">
+      <c r="U3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="53" t="s">
+      <c r="X3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="55" t="s">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="55" t="s">
+      <c r="AB3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="55" t="s">
+      <c r="AD3" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="AE3" s="56" t="s">
+      <c r="AE3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="55" t="s">
+      <c r="AF3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AG3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56" t="s">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="55" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="56" t="s">
+      <c r="AK3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="56" t="s">
+      <c r="AL3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="55" t="s">
+      <c r="AM3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AN3" s="56" t="s">
+      <c r="AN3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="56" t="s">
+      <c r="AO3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="55" t="s">
+      <c r="AP3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AQ3" s="56" t="s">
+      <c r="AQ3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="56" t="s">
+      <c r="AR3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AS3" s="55" t="s">
+      <c r="AS3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AT3" s="56" t="s">
+      <c r="AT3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="56" t="s">
+      <c r="AU3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AV3" s="55" t="s">
+      <c r="AV3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AW3" s="56" t="s">
+      <c r="AW3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AX3" s="55" t="s">
+      <c r="AX3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AY3" s="56" t="s">
+      <c r="AY3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="55" t="s">
+      <c r="AZ3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BA3" s="56" t="s">
+      <c r="BA3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="BB3" s="55" t="s">
+      <c r="BB3" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="BC3" s="55" t="s">
+      <c r="BC3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BD3" s="55" t="s">
+      <c r="BD3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="55" t="s">
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BG3" s="55" t="s">
+      <c r="BG3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="BH3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="57" t="s">
+      <c r="BH3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BL3" s="58"/>
-      <c r="BM3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN3" s="57" t="s">
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="BO3" s="57" t="s">
+      <c r="BO3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="BP3" s="57" t="s">
+      <c r="BP3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="BQ3" s="57" t="s">
+      <c r="BQ3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="BR3" s="57" t="s">
+      <c r="BR3" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="BS3" s="57" t="s">
+      <c r="BS3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="BT3" s="57" t="s">
+      <c r="BT3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="BU3" s="57" t="s">
+      <c r="BU3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="BV3" s="57" t="s">
+      <c r="BV3" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="BW3" s="57" t="s">
+      <c r="BW3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="BX3" s="57" t="s">
+      <c r="BX3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="BY3" s="57" t="s">
+      <c r="BY3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="BZ3" s="57" t="s">
+      <c r="BZ3" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="CA3" s="57" t="s">
+      <c r="CA3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="CB3" s="57" t="s">
+      <c r="CB3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="CC3" s="57" t="s">
+      <c r="CC3" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="CD3" s="57" t="s">
+      <c r="CD3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="CE3" s="57" t="s">
+      <c r="CE3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="CF3" s="57" t="s">
+      <c r="CF3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="CG3" s="57" t="s">
+      <c r="CG3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="CH3" s="57" t="s">
+      <c r="CH3" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="CI3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK3" s="57" t="s">
+      <c r="CI3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="CL3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="CN3" s="57" t="s">
+      <c r="CL3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN3" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="CO3" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="CP3" s="57" t="s">
+      <c r="CO3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="CQ3" s="57" t="s">
+      <c r="CQ3" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="CR3" s="57" t="s">
+      <c r="CR3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="CS3" s="57" t="s">
+      <c r="CS3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="CT3" s="57" t="s">
+      <c r="CT3" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="CU3" s="57" t="s">
+      <c r="CU3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="CV3" s="57" t="s">
+      <c r="CV3" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="CW3" s="57" t="s">
+      <c r="CW3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="CX3" s="57" t="s">
+      <c r="CX3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="CY3" s="57" t="s">
+      <c r="CY3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="CZ3" s="57" t="s">
+      <c r="CZ3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="DA3" s="57" t="s">
+      <c r="DA3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="DB3" s="57" t="s">
+      <c r="DB3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="DC3" s="57" t="s">
+      <c r="DC3" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="DD3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE3" s="60"/>
-      <c r="DF3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG3" s="60"/>
-      <c r="DH3" s="61" t="s">
+      <c r="DD3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="45"/>
+      <c r="DF3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG3" s="45"/>
+      <c r="DH3" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="DI3" s="46"/>
-      <c r="DJ3" s="47"/>
-      <c r="DK3" s="47"/>
-      <c r="DL3" s="47"/>
-      <c r="DM3" s="47"/>
-      <c r="DN3" s="47"/>
-      <c r="DO3" s="47"/>
-      <c r="DP3" s="47"/>
-      <c r="DQ3" s="47"/>
-      <c r="DR3" s="62"/>
-      <c r="DS3" s="63"/>
-      <c r="DT3" s="63"/>
+      <c r="DI3" s="31"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="32"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="32"/>
+      <c r="DQ3" s="32"/>
+      <c r="DR3" s="47"/>
+      <c r="DS3" s="48"/>
+      <c r="DT3" s="48"/>
     </row>
     <row r="4" spans="1:124" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -3700,6 +3700,12 @@
       </c>
       <c r="B10" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="I10" s="12"/>
       <c r="DH10" s="4"/>
@@ -4962,11 +4968,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="DD1:DH1"/>
-    <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CR2:DC2"/>
     <mergeCell ref="Z1:BG1"/>
     <mergeCell ref="BN2:BU2"/>
     <mergeCell ref="BV2:BX2"/>
@@ -4979,6 +4980,11 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="BH1:DC1"/>
+    <mergeCell ref="DD1:DH1"/>
+    <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CR2:DC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4986,7 +4992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4998,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
